--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1200.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1200.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7967737450913425</v>
+        <v>1.169737577438354</v>
       </c>
       <c r="B1">
-        <v>1.488062106831245</v>
+        <v>2.438621520996094</v>
       </c>
       <c r="C1">
-        <v>5.627394121028666</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>3.150920761644738</v>
+        <v>2.363880395889282</v>
       </c>
       <c r="E1">
-        <v>1.475717763351605</v>
+        <v>1.238795518875122</v>
       </c>
     </row>
   </sheetData>
